--- a/xlsx/菲律賓_intext.xlsx
+++ b/xlsx/菲律賓_intext.xlsx
@@ -29,7 +29,7 @@
     <t>他加祿語</t>
   </si>
   <si>
-    <t>政策_政策_美國_菲律賓</t>
+    <t>体育运动_体育运动_伊朗_菲律賓</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
@@ -4820,10 +4820,10 @@
     <t>婆罗洲</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E7%89%B9%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>勞特島</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E7%89%B9%E5%B2%9B_(%E5%A4%A7%E5%B7%BD%E4%BB%96%E7%BE%A4%E5%B2%9B)</t>
+  </si>
+  <si>
+    <t>劳特岛 (大巽他群岛)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B8%83%E5%BA%AB%E5%B3%B6_(%E5%A9%86%E7%BE%85%E6%B4%B2)</t>
